--- a/swings/2021-11-22/KUCOIN_SPOT_HYVE_USDT.xlsx
+++ b/swings/2021-11-22/KUCOIN_SPOT_HYVE_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>0.3741</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -659,6 +668,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O4" t="n">
+        <v>0.3757</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -711,6 +723,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -763,6 +776,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -815,6 +829,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -867,6 +882,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -921,6 +937,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O9" t="n">
+        <v>0.372</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -975,6 +994,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O10" t="n">
+        <v>0.3728</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1027,6 +1049,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1079,6 +1102,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1131,6 +1155,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1183,6 +1208,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1237,6 +1263,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O15" t="n">
+        <v>0.3698</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1289,6 +1318,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1341,6 +1371,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1395,6 +1426,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O18" t="n">
+        <v>0.3714</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1447,6 +1481,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1499,6 +1534,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1551,6 +1587,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1603,6 +1640,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1655,6 +1693,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1709,6 +1748,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O24" t="n">
+        <v>0.355</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1761,6 +1803,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1815,6 +1858,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O26" t="n">
+        <v>0.3818</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1867,6 +1913,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1919,6 +1966,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1973,6 +2021,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O29" t="n">
+        <v>0.3573</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2027,6 +2078,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O30" t="n">
+        <v>0.361</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2079,6 +2133,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2133,6 +2188,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O32" t="n">
+        <v>0.3561</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2185,6 +2243,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2239,6 +2298,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O34" t="n">
+        <v>0.3602</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2293,6 +2355,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O35" t="n">
+        <v>0.3571</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2345,6 +2410,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2399,6 +2465,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O37" t="n">
+        <v>0.3623</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2453,6 +2522,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O38" t="n">
+        <v>0.3583</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2505,6 +2577,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2559,6 +2632,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O40" t="n">
+        <v>0.3639</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2613,6 +2689,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O41" t="n">
+        <v>0.3596</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2667,6 +2746,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O42" t="n">
+        <v>0.3626</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2719,6 +2801,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2773,6 +2856,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O44" t="n">
+        <v>0.3596</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2825,6 +2911,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2879,6 +2966,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O46" t="n">
+        <v>0.3641</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2931,6 +3021,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2985,6 +3076,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O48" t="n">
+        <v>0.3595</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3039,6 +3133,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O49" t="n">
+        <v>0.3609</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3091,6 +3188,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3143,6 +3241,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3195,6 +3294,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3249,6 +3349,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O53" t="n">
+        <v>0.3538</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3303,6 +3406,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O54" t="n">
+        <v>0.364</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3355,6 +3461,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3407,6 +3514,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3461,6 +3569,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O57" t="n">
+        <v>0.3556</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3513,6 +3624,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3565,6 +3677,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3617,6 +3730,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3671,6 +3785,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O61" t="n">
+        <v>0.364</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3723,6 +3840,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3777,6 +3895,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O63" t="n">
+        <v>0.356</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3829,6 +3950,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3883,6 +4005,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O65" t="n">
+        <v>0.3591</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3935,6 +4060,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3989,6 +4115,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O67" t="n">
+        <v>0.3548</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4041,6 +4170,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4093,6 +4223,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4147,6 +4278,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O70" t="n">
+        <v>0.359</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4199,6 +4333,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4251,6 +4386,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4303,6 +4439,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4357,6 +4494,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O74" t="n">
+        <v>0.3513</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4409,6 +4549,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4463,6 +4604,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O76" t="n">
+        <v>0.3623</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4515,6 +4659,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4567,6 +4712,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4621,6 +4767,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O79" t="n">
+        <v>0.3514</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4673,6 +4822,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4725,6 +4875,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4779,6 +4930,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O82" t="n">
+        <v>0.3608</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4833,6 +4987,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O83" t="n">
+        <v>0.3501</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4885,6 +5042,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4939,6 +5097,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O85" t="n">
+        <v>0.356</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4993,6 +5154,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O86" t="n">
+        <v>0.3516</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5045,6 +5209,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5099,6 +5264,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O88" t="n">
+        <v>0.3627</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5151,6 +5319,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5205,6 +5374,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O90" t="n">
+        <v>0.3552</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5259,6 +5431,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O91" t="n">
+        <v>0.3587</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5313,6 +5488,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O92" t="n">
+        <v>0.3478</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5365,6 +5543,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5419,6 +5598,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O94" t="n">
+        <v>0.3529</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5473,6 +5655,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O95" t="n">
+        <v>0.3448</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5525,6 +5710,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5577,6 +5763,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5631,6 +5818,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O98" t="n">
+        <v>0.354</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5685,6 +5875,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O99" t="n">
+        <v>0.3463</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5737,6 +5930,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5791,6 +5985,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O101" t="n">
+        <v>0.3526</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5843,6 +6040,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5895,6 +6093,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5947,6 +6146,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5999,6 +6199,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6053,6 +6254,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O106" t="n">
+        <v>0.342</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6107,6 +6311,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O107" t="n">
+        <v>0.3458</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6161,6 +6368,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O108" t="n">
+        <v>0.341</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6213,6 +6423,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6265,6 +6476,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6319,6 +6531,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O111" t="n">
+        <v>0.3437</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6373,6 +6588,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O112" t="n">
+        <v>0.3415</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6427,6 +6645,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O113" t="n">
+        <v>0.3444</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6481,6 +6702,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O114" t="n">
+        <v>0.3432</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6535,6 +6759,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O115" t="n">
+        <v>0.345</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6587,6 +6814,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6641,6 +6869,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O117" t="n">
+        <v>0.3401</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6695,6 +6926,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O118" t="n">
+        <v>0.3458</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6749,6 +6983,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O119" t="n">
+        <v>0.3401</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6803,6 +7040,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O120" t="n">
+        <v>0.3471</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6857,6 +7097,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O121" t="n">
+        <v>0.3418</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6909,6 +7152,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6963,6 +7207,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O123" t="n">
+        <v>0.3472</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7015,6 +7262,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7069,6 +7317,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O125" t="n">
+        <v>0.3401</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7123,6 +7374,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O126" t="n">
+        <v>0.3429</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7177,6 +7431,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O127" t="n">
+        <v>0.3409</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7229,6 +7486,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7283,6 +7541,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O129" t="n">
+        <v>0.3459</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7335,6 +7596,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7389,6 +7651,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O131" t="n">
+        <v>0.3412</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7443,6 +7708,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O132" t="n">
+        <v>0.3423</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7495,6 +7763,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7549,6 +7818,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O134" t="n">
+        <v>0.3405</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7603,6 +7875,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O135" t="n">
+        <v>0.3459</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7655,6 +7930,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7709,6 +7985,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O137" t="n">
+        <v>0.3401</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7761,6 +8040,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7813,6 +8093,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7867,6 +8148,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O140" t="n">
+        <v>0.348</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7919,6 +8203,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7973,6 +8258,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O142" t="n">
+        <v>0.345</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8027,6 +8315,9 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O143" t="n">
+        <v>0.3529</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8079,6 +8370,7 @@
           <t>HYVEUSDT</t>
         </is>
       </c>
+      <c r="O144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8132,6 +8424,9 @@
         <is>
           <t>HYVEUSDT</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>0.345</v>
       </c>
     </row>
   </sheetData>
